--- a/prior_sensitivity/prior_list.xlsx
+++ b/prior_sensitivity/prior_list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anarm\OneDrive\Documents\R Scripts\bayesian\final plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C813A4-9A64-405D-8709-C4A04D5F4D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7727D1-0D69-48EB-B442-E480AC977D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="State and Tiny Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Region Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="44">
   <si>
     <t>Model</t>
   </si>
@@ -154,6 +155,9 @@
   </si>
   <si>
     <t>gamma_2,2_mean_neg6_zoom_tiny_model_without_sd_intercept</t>
+  </si>
+  <si>
+    <t>region level only</t>
   </si>
 </sst>
 </file>
@@ -201,12 +205,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,15 +491,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="56" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56" style="2" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" customWidth="1"/>
@@ -505,13 +506,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
       <c r="D1" t="s">
@@ -525,10 +526,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
@@ -566,7 +567,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -620,47 +621,44 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="2"/>
-      <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="2"/>
       <c r="I15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -672,34 +670,32 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -707,43 +703,40 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>4</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="E25" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -751,41 +744,40 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>5</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -793,171 +785,163 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>6</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38">
         <v>7</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43">
         <v>8</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D44" s="2"/>
-      <c r="E44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48">
         <v>9</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
+      <c r="E50" t="s">
         <v>6</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -965,8 +949,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
+      <c r="E51" t="s">
         <v>34</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -974,43 +957,40 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>10</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D55" s="2"/>
-      <c r="E55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="3" t="s">
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D56" s="2"/>
-      <c r="E56" s="2" t="s">
+      <c r="E56" t="s">
         <v>34</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -1018,34 +998,32 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58">
         <v>11</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" t="s">
         <v>36</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D60" s="2"/>
-      <c r="E60" s="4" t="s">
+      <c r="E60" t="s">
         <v>6</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -1053,43 +1031,40 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
+      <c r="E61" t="s">
         <v>34</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63">
         <v>12</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" t="s">
         <v>36</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D65" s="2"/>
-      <c r="E65" s="4" t="s">
+      <c r="E65" t="s">
         <v>6</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -1097,43 +1072,40 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
+      <c r="E66" t="s">
         <v>34</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68">
         <v>13</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" t="s">
         <v>36</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="E68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D70" s="2"/>
-      <c r="E70" s="4" t="s">
+      <c r="E70" t="s">
         <v>6</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -1141,143 +1113,504 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
+      <c r="E71" t="s">
         <v>34</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73">
         <v>14</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D74" s="2"/>
-      <c r="E74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="2" t="s">
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D75" s="2"/>
-      <c r="E75" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D76" s="2"/>
-      <c r="E76" s="2" t="s">
+      <c r="E76" t="s">
         <v>34</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78">
         <v>15</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" t="s">
         <v>36</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F78" s="2" t="s">
+      <c r="E78" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D79" s="2"/>
-      <c r="E79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" s="2" t="s">
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D80" s="2"/>
-      <c r="E80" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" s="3" t="s">
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
+      <c r="E81" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83">
         <v>16</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" t="s">
         <v>36</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="E83" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D84" s="2"/>
-      <c r="E84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D85" s="2"/>
-      <c r="E85" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="3" t="s">
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D86" s="2"/>
-      <c r="E86" s="2" t="s">
+      <c r="E86" t="s">
         <v>34</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F573C333-1D3B-435C-901F-0F3434F10B93}">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="57.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>28</v>
       </c>
     </row>
